--- a/src/main/resources/javaTemplate/importExcel.xlsx
+++ b/src/main/resources/javaTemplate/importExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huenbin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B53962-9493-1740-9B8B-2F0F4846BB0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C12F7E-47CC-4848-9BED-F1FDB545F139}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19820" yWindow="2580" windowWidth="28240" windowHeight="17440" activeTab="1" xr2:uid="{C5B7898D-9811-E34F-9F24-E218A4796513}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19220" activeTab="1" xr2:uid="{C5B7898D-9811-E34F-9F24-E218A4796513}"/>
   </bookViews>
   <sheets>
     <sheet name="Demo(案例-tb_demo)" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="17">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,6 +90,14 @@
   </si>
   <si>
     <t>删除状态 0 正常 1删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Demo(案例-tb_demo_1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test(测试-tb_test_1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -140,7 +148,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -149,6 +157,9 @@
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -464,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3810E45F-BD64-BB4D-9748-E33AE2E933CD}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C21"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -477,79 +488,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
+      <c r="A1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1">
-        <v>20</v>
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="1">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{AB99D57C-1C49-5645-B7AA-4F04A0C58559}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B1048576" xr:uid="{AB99D57C-1C49-5645-B7AA-4F04A0C58559}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -559,10 +581,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{483C19C1-BA3F-BB4D-B8E8-463C1B27ED4A}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD23"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -573,83 +595,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
+      <c r="A1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2">
-        <v>20</v>
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="2">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>14</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H6" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{0381E5B7-F57F-F347-A3EF-4347ED98E8F0}">
-      <formula1>$H$5:$H$5</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B1048576" xr:uid="{0381E5B7-F57F-F347-A3EF-4347ED98E8F0}">
+      <formula1>$H$6:$H$6</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
